--- a/projetos excel/Exercícios de excel em pleno 2025.xlsx
+++ b/projetos excel/Exercícios de excel em pleno 2025.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1005,11 +1005,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2093792640"/>
-        <c:axId val="2093790464"/>
+        <c:axId val="800456496"/>
+        <c:axId val="800444528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2093792640"/>
+        <c:axId val="800456496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1105,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093790464"/>
+        <c:crossAx val="800444528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093790464"/>
+        <c:axId val="800444528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24500"/>
@@ -1218,7 +1218,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093792640"/>
+        <c:crossAx val="800456496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1897,12 +1897,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2093791008"/>
-        <c:axId val="2093793728"/>
-        <c:axId val="2135133680"/>
+        <c:axId val="800453776"/>
+        <c:axId val="800458128"/>
+        <c:axId val="602967920"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2093791008"/>
+        <c:axId val="800453776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1945,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093793728"/>
+        <c:crossAx val="800458128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1953,7 +1953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093793728"/>
+        <c:axId val="800458128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,12 +2004,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093791008"/>
+        <c:crossAx val="800453776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2135133680"/>
+        <c:axId val="602967920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2051,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093793728"/>
+        <c:crossAx val="800458128"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -2720,12 +2720,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1925616720"/>
-        <c:axId val="1925617264"/>
-        <c:axId val="2135176448"/>
+        <c:axId val="800455952"/>
+        <c:axId val="800451056"/>
+        <c:axId val="598138432"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="1925616720"/>
+        <c:axId val="800455952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,7 +2768,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925617264"/>
+        <c:crossAx val="800451056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2776,7 +2776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1925617264"/>
+        <c:axId val="800451056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,12 +2827,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925616720"/>
+        <c:crossAx val="800455952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2135176448"/>
+        <c:axId val="598138432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,7 +2874,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925617264"/>
+        <c:crossAx val="800451056"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -4607,15 +4607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,7 +5324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
